--- a/TQscorev1.xlsx
+++ b/TQscorev1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vernon\Documents\IoT\SuvaCapstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A00DD35-1B66-488D-9659-D886412155C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7852FD0-273F-48BB-88E4-9B7D8B018FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1485" windowWidth="22140" windowHeight="14115" xr2:uid="{E270DF7A-5E42-4932-BFE4-917BE0BC15A8}"/>
+    <workbookView xWindow="2670" yWindow="1575" windowWidth="22140" windowHeight="14115" xr2:uid="{E270DF7A-5E42-4932-BFE4-917BE0BC15A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Personal telephone calls</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>OTQ_H</t>
+  </si>
+  <si>
+    <t>OTQ_M</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B3817B-DF37-4B2F-A5B2-C6C101DCECC5}">
-  <dimension ref="F4:H11"/>
+  <dimension ref="F4:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H5" sqref="H5:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,15 +437,18 @@
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,10 +456,14 @@
         <v>5</v>
       </c>
       <c r="H5">
+        <f>(I5+G5)/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="I5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
@@ -461,10 +471,14 @@
         <v>3</v>
       </c>
       <c r="H6">
+        <f t="shared" ref="H6:H11" si="0">(I6+G6)/2</f>
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
@@ -472,10 +486,14 @@
         <v>5</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="I7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
@@ -483,10 +501,14 @@
         <v>15</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="I8">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
@@ -494,10 +516,14 @@
         <v>3</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
@@ -505,10 +531,14 @@
         <v>2</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
@@ -516,6 +546,10 @@
         <v>8</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="I11">
         <v>25</v>
       </c>
     </row>
